--- a/biology/Médecine/Lipodissolution/Lipodissolution.xlsx
+++ b/biology/Médecine/Lipodissolution/Lipodissolution.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La lipodissolution est une technique visant à diminuer l'épaisseur du tissu graisseux sous-cutané par le biais d'injection de sérum physiologique dilué.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Des professionnels de la chirurgie esthétique ont travaillé sur la lipodissolution, par exemple les docteurs Vilain et Illouz. Néanmoins, ces essais n'ont pas été couronnés de succès.
 En 1992 le docteur Zocchi associe à sa canule d'ultrasons un protocole utilisant une infiltration par un sérum dilué à 50 %. À partir de 1995, le docteur Bernstein entreprend les premiers traitements sur deux sites.
